--- a/Day 15/Video_Q15_Problem_Statement.xlsx
+++ b/Day 15/Video_Q15_Problem_Statement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thoufiq/THOUFIQ/techTFQ/YouTube/VIDEOS/30 SQL Interview Queries/Video_Q15/Video_Q15_Scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\repo\30DaySQLQueryChallenge\Day 15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA64922-D6A3-3943-8290-8BAE82156E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B2E55F-CF5D-4316-8644-E3FE80A36196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{E2B8983A-410F-1E4E-B9F8-70A3BE661D0C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{E2B8983A-410F-1E4E-B9F8-70A3BE661D0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="12">
   <si>
     <t>Jason</t>
   </si>
@@ -395,21 +393,6 @@
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -434,16 +417,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -471,6 +445,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -806,195 +804,464 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9B905E-6652-044B-B271-BABD64D7B8D5}">
-  <dimension ref="B1:G14"/>
+  <dimension ref="B1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="3" width="12.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="6" width="12.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.8125" style="1"/>
+    <col min="2" max="3" width="12.8125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.8125" style="1"/>
+    <col min="5" max="6" width="12.8125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.8125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.8125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="19" customFormat="1" ht="19" x14ac:dyDescent="0.2">
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="2:7" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.5">
+      <c r="B1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-    </row>
-    <row r="2" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="15" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-    </row>
-    <row r="6" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="3" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+    </row>
+    <row r="6" spans="2:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" spans="2:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="E7" s="4" t="s">
+      <c r="C7" s="22"/>
+      <c r="E7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="2:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="21" t="s">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B9" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="24" t="s">
+      <c r="F10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B11" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B12" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="14">
-        <v>1</v>
+      <c r="C13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" spans="2:6" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="E17" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="22"/>
+    </row>
+    <row r="18" spans="2:6" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.5">
+      <c r="B19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.5">
+      <c r="B20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.5">
+      <c r="B21" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.5">
+      <c r="B22" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.5">
+      <c r="B23" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.5">
+      <c r="B27" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.5">
+      <c r="B28" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.5">
+      <c r="B29" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.5">
+      <c r="B30" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.5">
+      <c r="B31" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.5">
+      <c r="B33" s="7"/>
+      <c r="C33" s="15"/>
+      <c r="E33" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.5">
+      <c r="B34" s="8"/>
+      <c r="C34" s="16"/>
+      <c r="E34" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.5">
+      <c r="B35" s="8"/>
+      <c r="C35" s="16"/>
+      <c r="E35" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.5">
+      <c r="B36" s="8"/>
+      <c r="C36" s="16"/>
+      <c r="E36" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.5">
+      <c r="B37" s="8"/>
+      <c r="C37" s="16"/>
+      <c r="E37" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="9"/>
+      <c r="C38" s="17"/>
+      <c r="E38" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G4"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Day 15/Video_Q15_Problem_Statement.xlsx
+++ b/Day 15/Video_Q15_Problem_Statement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\repo\30DaySQLQueryChallenge\Day 15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B2E55F-CF5D-4316-8644-E3FE80A36196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A76765-DFC6-4F65-A635-F76BF4208C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{E2B8983A-410F-1E4E-B9F8-70A3BE661D0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2B8983A-410F-1E4E-B9F8-70A3BE661D0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="24">
   <si>
     <t>Jason</t>
   </si>
@@ -90,6 +90,42 @@
       <t xml:space="preserve">
 For the given friends, find the no of mutual friends</t>
     </r>
+  </si>
+  <si>
+    <t>SELECT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ab.f1 AS a,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ab.f2 AS b,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        af.f2 AS a_friend,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        bf.f2 AS b_friend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FROM cte AS ab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    JOIN cte AS af ON ab.f1 = af.f1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    JOIN cte AS bf ON ab.f2 = bf.f1 AND ab.f1 = bf.f2</t>
+  </si>
+  <si>
+    <t>A's Friend</t>
+  </si>
+  <si>
+    <t>B's Friend</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -804,23 +840,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9B905E-6652-044B-B271-BABD64D7B8D5}">
-  <dimension ref="B1:G38"/>
+  <dimension ref="B1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.8125" style="1"/>
-    <col min="2" max="3" width="12.8125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8125" style="1"/>
-    <col min="5" max="6" width="12.8125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.8125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.8125" style="1"/>
+    <col min="1" max="1" width="10.875" style="1"/>
+    <col min="2" max="3" width="12.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="1"/>
+    <col min="5" max="6" width="12.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" style="1" customWidth="1"/>
+    <col min="8" max="10" width="10.875" style="1"/>
+    <col min="11" max="11" width="15.75" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:20" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B1" s="26" t="s">
         <v>10</v>
       </c>
@@ -830,7 +868,7 @@
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="27" t="s">
         <v>11</v>
       </c>
@@ -840,7 +878,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
     </row>
-    <row r="3" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
@@ -848,7 +886,7 @@
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
     </row>
-    <row r="4" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -856,8 +894,8 @@
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
     </row>
-    <row r="6" spans="2:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="7" spans="2:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="21" t="s">
         <v>7</v>
       </c>
@@ -867,8 +905,20 @@
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="2:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -884,8 +934,32 @@
       <c r="G8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="K8" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>0</v>
       </c>
@@ -901,8 +975,29 @@
       <c r="G9" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="K9" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
         <v>2</v>
       </c>
@@ -918,8 +1013,29 @@
       <c r="G10" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="K10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
@@ -935,8 +1051,29 @@
       <c r="G11" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="K11" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>3</v>
       </c>
@@ -952,8 +1089,26 @@
       <c r="G12" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="K12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
         <v>4</v>
       </c>
@@ -969,8 +1124,29 @@
       <c r="G13" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K13" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
         <v>3</v>
       </c>
@@ -986,9 +1162,36 @@
       <c r="G14" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="17" spans="2:6" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K14" s="7"/>
+      <c r="L14" s="15"/>
+      <c r="N14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="K15" s="8"/>
+      <c r="L15" s="16"/>
+      <c r="N15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="8"/>
+      <c r="L16" s="16"/>
+      <c r="N16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="21" t="s">
         <v>7</v>
       </c>
@@ -997,8 +1200,16 @@
         <v>7</v>
       </c>
       <c r="F17" s="22"/>
-    </row>
-    <row r="18" spans="2:6" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K17" s="8"/>
+      <c r="L17" s="16"/>
+      <c r="N17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
@@ -1011,8 +1222,16 @@
       <c r="F18" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.5">
+      <c r="K18" s="8"/>
+      <c r="L18" s="16"/>
+      <c r="N18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O18" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="15" t="s">
         <v>0</v>
       </c>
@@ -1025,8 +1244,16 @@
       <c r="F19" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.5">
+      <c r="K19" s="9"/>
+      <c r="L19" s="17"/>
+      <c r="N19" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O19" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>2</v>
       </c>
@@ -1040,7 +1267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
         <v>2</v>
       </c>
@@ -1054,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
         <v>3</v>
       </c>
@@ -1068,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
         <v>4</v>
       </c>
@@ -1081,8 +1308,26 @@
       <c r="F23" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="17" t="s">
         <v>3</v>
       </c>
@@ -1095,162 +1340,230 @@
       <c r="F24" s="9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="B27" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="B28" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="B29" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="B30" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="B31" s="16" t="s">
+      <c r="K24" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="K25" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="K26" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="F27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="F28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="16" t="s">
+      <c r="L28" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="F30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="F31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="F32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="B33" s="7"/>
-      <c r="C33" s="15"/>
-      <c r="E33" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="B34" s="8"/>
-      <c r="C34" s="16"/>
-      <c r="E34" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="B35" s="8"/>
-      <c r="C35" s="16"/>
-      <c r="E35" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="B36" s="8"/>
-      <c r="C36" s="16"/>
-      <c r="E36" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="B37" s="8"/>
-      <c r="C37" s="16"/>
-      <c r="E37" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37" s="16" t="s">
+      <c r="P33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R33" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="9"/>
-      <c r="C38" s="17"/>
-      <c r="E38" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F38" s="17" t="s">
+    <row r="34" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="O35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R35" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1264,5 +1577,6 @@
     <mergeCell ref="E17:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>